--- a/資料/画面設計書.xlsx
+++ b/資料/画面設計書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="メイン画面" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,8 @@
     <sheet name="プロフィール画面" sheetId="8" r:id="rId4"/>
     <sheet name="プロフィール編集画面 " sheetId="10" r:id="rId5"/>
     <sheet name="アカウント編集画面 " sheetId="12" r:id="rId6"/>
+    <sheet name="パスワード編集画面 " sheetId="13" r:id="rId7"/>
+    <sheet name="アカウント削除画面" sheetId="14" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1987,7 +1989,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ログイン画面へ</a:t>
+            <a:t>プロフィール画面へ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1999,20 +2001,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>39332</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>108010</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC672170-DE56-45CF-B605-2ED2F47749B2}"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77E85830-DE35-42EC-940A-70A9ED18879E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2034,8 +2036,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="352425"/>
-          <a:ext cx="10058400" cy="4925657"/>
+          <a:off x="0" y="371475"/>
+          <a:ext cx="10058400" cy="4499035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2046,63 +2048,1357 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>88772</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00F1A0D8-9B07-430D-B2E5-270666C92B68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000124" y="971550"/>
+          <a:ext cx="1419225" cy="307847"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アカウント情報へ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>41147</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="吹き出し: 四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21C3890F-19CB-418B-B97E-A7DBF05161A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2724150" y="1333499"/>
+          <a:ext cx="1362075" cy="374523"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>パスワード変更へ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>184022</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="吹き出し: 四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D5B3B7F-0C09-4179-803C-45C226398DDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114299" y="1714499"/>
+          <a:ext cx="1485901" cy="374523"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アカウント削除へ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>157151</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EE9B151-63EB-4BA5-8C0B-31CC871CFD2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="323850"/>
+          <a:ext cx="10058400" cy="4833926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="吹き出し: 四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDDD31AB-88ED-4A83-9FF6-41B75D7036A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="9525"/>
+          <a:ext cx="1733550" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メイン画面へ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="吹き出し: 四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ADCDD4A-A0C0-44D1-A98D-BB239D596B69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8801100" y="0"/>
+          <a:ext cx="1600200" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>プロフィール画面へ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>88772</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14E1484C-A45E-4A30-8C51-F4CB85584D00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000124" y="971550"/>
+          <a:ext cx="1419225" cy="307847"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アカウント情報へ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>6</xdr:row>
+      <xdr:rowOff>212597</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A505CA3A-A032-4343-A173-7DB3D56F10EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2657475" y="1266824"/>
+          <a:ext cx="1362075" cy="374523"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>パスワード変更へ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>184022</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="吹き出し: 四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19294FEC-FF64-48F9-A0F2-96D823261D6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114299" y="1714499"/>
+          <a:ext cx="1485901" cy="374523"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アカウント削除へ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>69722</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="吹き出し: 四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE9740F4-A038-472C-A86A-FDA63EC396C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6019800" y="1142999"/>
+          <a:ext cx="1809750" cy="355473"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>伏せ字テキストボックス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>184023</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="吹き出し: 四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33D00F09-6883-4DA9-8F67-A22BDD768EE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5048250" y="2447925"/>
+          <a:ext cx="1809750" cy="355473"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>伏せ字テキストボックス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12573</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="吹き出し: 四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2668462D-5E9E-45B5-B221-F52E4FAE1697}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5419725" y="1800225"/>
+          <a:ext cx="1809750" cy="355473"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>伏せ字テキストボックス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>155447</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="吹き出し: 四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DC34A39-CFDD-4895-897A-DE47E1D700A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7658099" y="2895599"/>
+          <a:ext cx="2028826" cy="355473"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に保存しパスワード変更へ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>52415</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCD69E31-584E-46F2-ABD1-82975DC53325}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="381000"/>
+          <a:ext cx="10058400" cy="4910165"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="吹き出し: 四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3214D03F-8157-4AC6-97E0-852F836BF36E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="9525"/>
+          <a:ext cx="1733550" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メイン画面へ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="吹き出し: 四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE8709D1-77C1-408E-A9CD-095256CE4DE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8801100" y="0"/>
+          <a:ext cx="1600200" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>プロフィール画面へ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>88772</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2CDC7FB-AEA8-4AA6-94FE-7E9E22346E52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1000124" y="971550"/>
+          <a:ext cx="1419225" cy="307847"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アカウント情報へ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>212597</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CE38101-9677-4CD2-AB07-282AB1D2B9BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2657475" y="1266824"/>
+          <a:ext cx="1362075" cy="374523"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>パスワード変更へ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>69722</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77512EDA-C57D-4573-81DE-CC988DDA2781}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2733675" y="1619249"/>
-          <a:ext cx="2647950" cy="355473"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>アカウント削除ポップアップ起動</a:t>
+      <xdr:rowOff>184022</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="吹き出し: 四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7546FE82-D2B2-4421-8C30-232F2402DC49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114299" y="1714499"/>
+          <a:ext cx="1485901" cy="374523"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アカウント削除へ</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12573</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="吹き出し: 四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08BE37F8-3F71-49A0-AD53-72F9BA2A30E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5419725" y="1800225"/>
+          <a:ext cx="1809750" cy="355473"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>伏せ字テキストボックス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>31622</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="吹き出し: 四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23B0EF6F-35AD-4DEB-8130-86189FDDAEB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6619874" y="2295524"/>
+          <a:ext cx="2028826" cy="355473"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>から削除しメイン画面へ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2495,7 +3791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
@@ -2506,4 +3802,38 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/資料/画面設計書.xlsx
+++ b/資料/画面設計書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="メイン画面" sheetId="1" r:id="rId1"/>
@@ -87,22 +87,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>235893</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>50595</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC83D27F-56B6-467E-8098-096275791CB3}"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAD53DE9-1D15-4D2E-ABBB-3A855D2D8A15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -124,8 +124,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="361950"/>
-          <a:ext cx="10287000" cy="4874568"/>
+          <a:off x="28575" y="400050"/>
+          <a:ext cx="10058400" cy="4889295"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1490,151 +1490,25 @@
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="吹き出し: 四角形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E5352A5-0E78-46FA-AB0A-2DD1026D8DF3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1733550" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>メイン画面へ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="吹き出し: 四角形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2437AD2F-960D-4AC1-BA4D-B3DAC69CC92E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8801100" y="0"/>
-          <a:ext cx="1600200" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>プロフィール画面へ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>34990</xdr:rowOff>
+      <xdr:rowOff>16818</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FF40771-C4C4-47A5-8E1F-751CF19D9C94}"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2CF4CE2-D315-4187-BFBB-099560C7829C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1656,14 +1530,140 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="104775" y="428625"/>
-          <a:ext cx="10058400" cy="4845115"/>
+          <a:off x="0" y="381000"/>
+          <a:ext cx="10058400" cy="4874568"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="吹き出し: 四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E5352A5-0E78-46FA-AB0A-2DD1026D8DF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1733550" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メイン画面へ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="吹き出し: 四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2437AD2F-960D-4AC1-BA4D-B3DAC69CC92E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8801100" y="0"/>
+          <a:ext cx="1600200" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>プロフィール画面へ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2254,22 +2254,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>157151</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>17696</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EE9B151-63EB-4BA5-8C0B-31CC871CFD2F}"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54669444-26DA-433D-9453-ADB3B6472497}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2291,8 +2291,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38100" y="323850"/>
-          <a:ext cx="10058400" cy="4833926"/>
+          <a:off x="0" y="352425"/>
+          <a:ext cx="10058400" cy="4904021"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2432,13 +2432,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>314324</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>361949</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>88772</xdr:rowOff>
+      <xdr:rowOff>155447</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2453,7 +2453,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1000124" y="971550"/>
+          <a:off x="1000124" y="1038225"/>
           <a:ext cx="1419225" cy="307847"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -2498,79 +2498,79 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>69722</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A505CA3A-A032-4343-A173-7DB3D56F10EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2600325" y="1362074"/>
+          <a:ext cx="1362075" cy="374523"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>パスワード変更へ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>212597</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A505CA3A-A032-4343-A173-7DB3D56F10EB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2657475" y="1266824"/>
-          <a:ext cx="1362075" cy="374523"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>パスワード変更へ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:rowOff>209549</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>184022</xdr:rowOff>
+      <xdr:rowOff>107822</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2585,7 +2585,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="114299" y="1714499"/>
+          <a:off x="209549" y="1638299"/>
           <a:ext cx="1485901" cy="374523"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -2631,14 +2631,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>69722</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>31622</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2653,7 +2653,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6019800" y="1142999"/>
+          <a:off x="6019800" y="1343024"/>
           <a:ext cx="1809750" cy="355473"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -2693,141 +2693,141 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>10</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>107823</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="吹き出し: 四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33D00F09-6883-4DA9-8F67-A22BDD768EE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5076825" y="2609850"/>
+          <a:ext cx="1809750" cy="355473"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>伏せ字テキストボックス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>184023</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="吹き出し: 四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2668462D-5E9E-45B5-B221-F52E4FAE1697}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5429250" y="1971675"/>
+          <a:ext cx="1809750" cy="355473"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>伏せ字テキストボックス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>184023</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="吹き出し: 四角形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33D00F09-6883-4DA9-8F67-A22BDD768EE1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5048250" y="2447925"/>
-          <a:ext cx="1809750" cy="355473"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>伏せ字テキストボックス</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>12573</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="吹き出し: 四角形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2668462D-5E9E-45B5-B221-F52E4FAE1697}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5419725" y="1800225"/>
-          <a:ext cx="1809750" cy="355473"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>伏せ字テキストボックス</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>155447</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>107822</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2842,7 +2842,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7658099" y="2895599"/>
+          <a:off x="7572374" y="3086099"/>
           <a:ext cx="2028826" cy="355473"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -3706,7 +3706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="G4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
@@ -3723,7 +3723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -3740,7 +3740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
@@ -3757,7 +3757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
@@ -3774,7 +3774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
@@ -3809,7 +3809,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3825,7 +3825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
